--- a/madelons_sacred_matlab_playground/Ranges.xlsx
+++ b/madelons_sacred_matlab_playground/Ranges.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/madelons_sacred_matlab_playground/Ranges.xlsx
+++ b/madelons_sacred_matlab_playground/Ranges.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Dutch Roll -Damped</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Alpha interessant - Constant</t>
   </si>
   <si>
-    <t>Induced velocity - local lift decrease due to aileron deflection</t>
-  </si>
-  <si>
     <t>Diverging - EV positive</t>
   </si>
   <si>
@@ -90,6 +87,21 @@
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Induced velocity - local lift decrease due to aileron deflection - rare asymetrie zonder sideslip, door turbulentie</t>
+  </si>
+  <si>
+    <t>Aileron</t>
+  </si>
+  <si>
+    <t>Rudder</t>
+  </si>
+  <si>
+    <t>Yaw rate - Roll rate</t>
+  </si>
+  <si>
+    <t>Bank Angle -&gt; Yaw rate bijzetten voor uitleg divergence</t>
   </si>
 </sst>
 </file>
@@ -444,7 +456,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,10 +468,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -484,6 +496,12 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
       <c r="D2">
         <v>-20</v>
       </c>
@@ -519,6 +537,12 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
       <c r="D3">
         <v>-20</v>
       </c>
@@ -551,6 +575,9 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
       <c r="D4">
         <v>-5</v>
       </c>
@@ -579,13 +606,19 @@
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
       <c r="D5">
         <v>0</v>
       </c>
@@ -638,7 +671,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/madelons_sacred_matlab_playground/Ranges.xlsx
+++ b/madelons_sacred_matlab_playground/Ranges.xlsx
@@ -456,7 +456,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/madelons_sacred_matlab_playground/Ranges.xlsx
+++ b/madelons_sacred_matlab_playground/Ranges.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Dutch Roll -Damped</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Bank Angle -&gt; Yaw rate bijzetten voor uitleg divergence</t>
+  </si>
+  <si>
+    <t>Bank Angle -&gt; Yaw rate</t>
   </si>
 </sst>
 </file>
@@ -456,12 +459,14 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="8" max="9" width="14.85546875" customWidth="1"/>
   </cols>
@@ -575,6 +580,9 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
